--- a/Timekeeping/2024/10-24/LOTFI S 10-24.xlsx
+++ b/Timekeeping/2024/10-24/LOTFI S 10-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\10-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095d5c38fd0987cc/RWA/1901/Eric's Billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFA3DF4-BA2F-4410-9051-02D204365B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3EFA3DF4-BA2F-4410-9051-02D204365B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17641284-E40C-4486-A48F-C031DDA79811}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
   <si>
     <t>NAME</t>
   </si>
@@ -1286,22 +1286,22 @@
   <dimension ref="A1:GH80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="19" customWidth="1"/>
-    <col min="4" max="34" width="3.46484375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="5.796875" style="20" customWidth="1"/>
-    <col min="36" max="36" width="40.796875" style="1" customWidth="1"/>
-    <col min="37" max="190" width="7.53125" style="21" customWidth="1"/>
-    <col min="191" max="16384" width="7.53125" style="21"/>
+    <col min="3" max="3" width="8.81640625" style="19" customWidth="1"/>
+    <col min="4" max="34" width="3.453125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="5.81640625" style="20" customWidth="1"/>
+    <col min="36" max="36" width="40.81640625" style="1" customWidth="1"/>
+    <col min="37" max="190" width="7.54296875" style="21" customWidth="1"/>
+    <col min="191" max="16384" width="7.54296875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -1376,7 +1376,7 @@
       <c r="BP1" s="30"/>
       <c r="BQ1" s="30"/>
     </row>
-    <row r="2" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -1451,7 +1451,7 @@
       <c r="BP2" s="30"/>
       <c r="BQ2" s="30"/>
     </row>
-    <row r="3" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
@@ -1534,7 +1534,7 @@
       <c r="BP3" s="30"/>
       <c r="BQ3" s="30"/>
     </row>
-    <row r="4" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:190" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -1609,7 +1609,7 @@
       <c r="BP4" s="30"/>
       <c r="BQ4" s="30"/>
     </row>
-    <row r="5" spans="1:190" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:190" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>2</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="GG5" s="21"/>
       <c r="GH5" s="21"/>
     </row>
-    <row r="6" spans="1:190" s="23" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:190" s="23" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="GG6" s="21"/>
       <c r="GH6" s="21"/>
     </row>
-    <row r="7" spans="1:190" ht="10.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:190" ht="10.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="40"/>
       <c r="C7" s="41" t="s">
@@ -2214,7 +2214,7 @@
       <c r="BP7" s="30"/>
       <c r="BQ7" s="30"/>
     </row>
-    <row r="8" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
         <v>80</v>
       </c>
@@ -2318,7 +2318,7 @@
       <c r="BP8" s="30"/>
       <c r="BQ8" s="30"/>
     </row>
-    <row r="9" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
         <v>72</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="BP9" s="30"/>
       <c r="BQ9" s="30"/>
     </row>
-    <row r="10" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73" t="s">
         <v>77</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="BP10" s="30"/>
       <c r="BQ10" s="30"/>
     </row>
-    <row r="11" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
         <v>74</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="BP11" s="30"/>
       <c r="BQ11" s="30"/>
     </row>
-    <row r="12" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="82" t="s">
         <v>82</v>
       </c>
@@ -2712,14 +2712,16 @@
       <c r="BP12" s="30"/>
       <c r="BQ12" s="30"/>
     </row>
-    <row r="13" spans="1:190" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:190" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="73" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="85" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="79">
         <v>6</v>
       </c>
@@ -2963,7 +2965,7 @@
       <c r="GG13" s="21"/>
       <c r="GH13" s="21"/>
     </row>
-    <row r="14" spans="1:190" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:190" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="54" t="s">
         <v>6</v>
@@ -3255,7 +3257,7 @@
       <c r="GG14" s="21"/>
       <c r="GH14" s="21"/>
     </row>
-    <row r="15" spans="1:190" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:190" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>7</v>
       </c>
@@ -3457,7 +3459,7 @@
       <c r="GG15" s="24"/>
       <c r="GH15" s="24"/>
     </row>
-    <row r="16" spans="1:190" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:190" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
@@ -3654,7 +3656,7 @@
       <c r="GG16" s="24"/>
       <c r="GH16" s="24"/>
     </row>
-    <row r="17" spans="1:190" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:190" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>8</v>
       </c>
@@ -3851,7 +3853,7 @@
       <c r="GG17" s="21"/>
       <c r="GH17" s="21"/>
     </row>
-    <row r="18" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
@@ -3927,7 +3929,7 @@
       <c r="BP18" s="30"/>
       <c r="BQ18" s="30"/>
     </row>
-    <row r="19" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>58</v>
       </c>
@@ -4002,7 +4004,7 @@
       <c r="BP19" s="30"/>
       <c r="BQ19" s="30"/>
     </row>
-    <row r="20" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
@@ -4080,7 +4082,7 @@
       <c r="BP20" s="30"/>
       <c r="BQ20" s="30"/>
     </row>
-    <row r="21" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
@@ -4156,7 +4158,7 @@
       <c r="BP21" s="30"/>
       <c r="BQ21" s="30"/>
     </row>
-    <row r="22" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>29</v>
       </c>
@@ -4232,7 +4234,7 @@
       <c r="BP22" s="30"/>
       <c r="BQ22" s="30"/>
     </row>
-    <row r="23" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>29</v>
       </c>
@@ -4308,7 +4310,7 @@
       <c r="BP23" s="30"/>
       <c r="BQ23" s="30"/>
     </row>
-    <row r="24" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>9</v>
       </c>
@@ -4476,7 +4478,7 @@
       <c r="BP24" s="30"/>
       <c r="BQ24" s="30"/>
     </row>
-    <row r="25" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A25" s="86"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -4547,7 +4549,7 @@
       <c r="BP25" s="30"/>
       <c r="BQ25" s="30"/>
     </row>
-    <row r="26" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4627,7 +4629,7 @@
       <c r="BP26" s="30"/>
       <c r="BQ26" s="30"/>
     </row>
-    <row r="27" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A27" s="86"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -4698,7 +4700,7 @@
       <c r="BP27" s="30"/>
       <c r="BQ27" s="30"/>
     </row>
-    <row r="28" spans="1:190" s="30" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:190" s="30" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>10</v>
       </c>
@@ -4739,7 +4741,7 @@
       <c r="AJ28" s="31"/>
       <c r="AZ28" s="52"/>
     </row>
-    <row r="29" spans="1:190" s="30" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:190" s="30" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>61</v>
       </c>
@@ -4793,7 +4795,7 @@
       <c r="AJ29" s="31"/>
       <c r="AZ29" s="52"/>
     </row>
-    <row r="30" spans="1:190" s="30" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:190" s="30" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -4839,7 +4841,7 @@
       <c r="AJ30" s="31"/>
       <c r="AZ30" s="52"/>
     </row>
-    <row r="31" spans="1:190" s="30" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:190" s="30" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>63</v>
       </c>
@@ -4892,7 +4894,7 @@
       </c>
       <c r="AZ31" s="52"/>
     </row>
-    <row r="32" spans="1:190" s="30" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:190" s="30" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4937,7 +4939,7 @@
       <c r="AI32" s="60"/>
       <c r="AJ32" s="31"/>
     </row>
-    <row r="33" spans="1:36" s="30" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" s="30" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>27</v>
       </c>
@@ -4987,7 +4989,7 @@
       </c>
       <c r="AJ33" s="31"/>
     </row>
-    <row r="34" spans="1:36" s="30" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" s="30" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="31"/>
@@ -5024,7 +5026,7 @@
       <c r="AI34" s="62"/>
       <c r="AJ34" s="31"/>
     </row>
-    <row r="35" spans="1:36" s="30" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" s="30" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -5066,7 +5068,7 @@
       </c>
       <c r="AJ35" s="31"/>
     </row>
-    <row r="36" spans="1:36" s="30" customFormat="1" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" s="30" customFormat="1" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -5104,7 +5106,7 @@
       <c r="AI36" s="31"/>
       <c r="AJ36" s="31"/>
     </row>
-    <row r="37" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -5142,7 +5144,7 @@
       <c r="AI37" s="31"/>
       <c r="AJ37" s="31"/>
     </row>
-    <row r="38" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -5180,7 +5182,7 @@
       <c r="AI38" s="31"/>
       <c r="AJ38" s="31"/>
     </row>
-    <row r="39" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -5218,167 +5220,167 @@
       <c r="AI39" s="31"/>
       <c r="AJ39" s="31"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C40"/>
       <c r="AI40" s="1"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C41"/>
       <c r="AI41" s="1"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C42"/>
       <c r="AI42" s="1"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C43"/>
       <c r="AI43" s="1"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C44"/>
       <c r="AI44" s="1"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C45"/>
       <c r="AI45" s="1"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C46"/>
       <c r="AI46" s="1"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C47"/>
       <c r="AI47" s="1"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C48"/>
       <c r="AI48" s="1"/>
     </row>
-    <row r="49" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C49"/>
       <c r="AI49" s="1"/>
     </row>
-    <row r="50" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C50"/>
       <c r="AI50" s="1"/>
     </row>
-    <row r="51" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C51"/>
       <c r="AI51" s="1"/>
     </row>
-    <row r="52" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C52"/>
       <c r="AI52" s="1"/>
     </row>
-    <row r="53" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C53"/>
       <c r="AI53" s="1"/>
     </row>
-    <row r="54" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C54"/>
       <c r="AI54" s="1"/>
     </row>
-    <row r="55" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C55"/>
       <c r="AI55" s="1"/>
     </row>
-    <row r="56" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C56"/>
       <c r="AI56" s="1"/>
     </row>
-    <row r="57" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C57"/>
       <c r="AI57" s="1"/>
     </row>
-    <row r="58" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C58"/>
       <c r="AI58" s="1"/>
     </row>
-    <row r="59" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C59"/>
       <c r="AI59" s="1"/>
     </row>
-    <row r="60" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C60"/>
       <c r="AI60" s="1"/>
     </row>
-    <row r="61" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C61"/>
       <c r="AI61" s="1"/>
     </row>
-    <row r="62" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C62"/>
       <c r="AI62" s="1"/>
     </row>
-    <row r="63" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C63"/>
       <c r="AI63" s="1"/>
     </row>
-    <row r="64" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C64"/>
       <c r="AI64" s="1"/>
     </row>
-    <row r="65" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C65"/>
       <c r="AI65" s="1"/>
     </row>
-    <row r="66" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C66"/>
       <c r="AI66" s="1"/>
     </row>
-    <row r="67" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C67"/>
       <c r="AI67" s="1"/>
     </row>
-    <row r="68" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C68"/>
       <c r="AI68" s="1"/>
     </row>
-    <row r="69" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C69"/>
       <c r="AI69" s="1"/>
     </row>
-    <row r="70" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C70"/>
       <c r="AI70" s="1"/>
     </row>
-    <row r="71" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C71"/>
       <c r="AI71" s="1"/>
     </row>
-    <row r="72" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C72"/>
       <c r="AI72" s="1"/>
     </row>
-    <row r="73" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="AI73" s="1"/>
     </row>
-    <row r="74" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C74"/>
       <c r="AI74" s="1"/>
     </row>
-    <row r="75" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C75"/>
       <c r="AI75" s="1"/>
     </row>
-    <row r="76" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C76"/>
       <c r="AI76" s="1"/>
     </row>
-    <row r="77" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C77"/>
       <c r="AI77" s="1"/>
     </row>
-    <row r="78" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C78"/>
       <c r="AI78" s="1"/>
     </row>
-    <row r="79" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C79"/>
       <c r="AI79" s="1"/>
     </row>
-    <row r="80" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C80"/>
       <c r="AI80" s="1"/>
     </row>
